--- a/Unity/Assets/Config/ExcelCustom/Weapon.xlsx
+++ b/Unity/Assets/Config/ExcelCustom/Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="9960"/>
+    <workbookView windowWidth="20970" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>type:table</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -688,18 +685,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1018,83 +1009,75 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
